--- a/results/resultsPLOEG.xlsx
+++ b/results/resultsPLOEG.xlsx
@@ -537,13 +537,13 @@
         <v>37</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005663752555847168</v>
+        <v>0.0003064172267913819</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1284952163696289</v>
+        <v>0.001490354537963867</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0001387596130371094</v>
+        <v>0.0001442432403564453</v>
       </c>
     </row>
     <row r="3">
@@ -583,13 +583,13 @@
         <v>35</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001249167919158935</v>
+        <v>9.489059448242188e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001266956329345703</v>
+        <v>0.0004427433013916016</v>
       </c>
       <c r="N3" t="n">
-        <v>6.556510925292969e-05</v>
+        <v>6.103515625e-05</v>
       </c>
     </row>
     <row r="4">
@@ -611,31 +611,31 @@
         <v>0.7985074626865671</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.65</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6410256410256411</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J4" t="n">
         <v>13</v>
       </c>
-      <c r="J4" t="n">
-        <v>14</v>
-      </c>
       <c r="K4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005449888706207276</v>
+        <v>0.0003180978298187256</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1329660415649414</v>
+        <v>0.001538753509521484</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0001430511474609375</v>
+        <v>0.0001435279846191406</v>
       </c>
     </row>
     <row r="5">
@@ -657,31 +657,31 @@
         <v>0.7985074626865671</v>
       </c>
       <c r="F5" t="n">
-        <v>0.65</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="H5" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
         <v>14</v>
       </c>
-      <c r="J5" t="n">
-        <v>13</v>
-      </c>
       <c r="K5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" t="n">
-        <v>9.828805923461914e-05</v>
+        <v>9.478831291198731e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.000659942626953125</v>
+        <v>0.0006144046783447266</v>
       </c>
       <c r="N5" t="n">
-        <v>7.009506225585938e-05</v>
+        <v>6.771087646484375e-05</v>
       </c>
     </row>
     <row r="6">
@@ -700,19 +700,19 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8955223880597015</v>
+        <v>0.8805970149253731</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8378378378378378</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="G6" t="n">
         <v>0.7948717948717948</v>
       </c>
       <c r="H6" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>8</v>
@@ -721,13 +721,13 @@
         <v>31</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01107423877716065</v>
+        <v>0.01129823732376099</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02228069305419922</v>
+        <v>0.0503842830657959</v>
       </c>
       <c r="N6" t="n">
-        <v>0.007840871810913086</v>
+        <v>0.008116245269775391</v>
       </c>
     </row>
     <row r="7">
@@ -746,19 +746,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8955223880597015</v>
+        <v>0.8805970149253731</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8378378378378378</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="G7" t="n">
         <v>0.7948717948717948</v>
       </c>
       <c r="H7" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>31</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008478837013244629</v>
+        <v>0.007691164493560791</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02098965644836426</v>
+        <v>0.01374673843383789</v>
       </c>
       <c r="N7" t="n">
-        <v>0.006454229354858398</v>
+        <v>0.006586313247680664</v>
       </c>
     </row>
     <row r="8">
@@ -813,13 +813,13 @@
         <v>39</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003058898448944092</v>
+        <v>0.0003345158100128174</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002312898635864258</v>
+        <v>0.001645803451538086</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0001227855682373047</v>
+        <v>0.0001373291015625</v>
       </c>
     </row>
     <row r="9">
@@ -859,13 +859,13 @@
         <v>34</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001036858558654785</v>
+        <v>9.734678268432618e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.000728607177734375</v>
+        <v>0.0007107257843017578</v>
       </c>
       <c r="N9" t="n">
-        <v>7.82012939453125e-05</v>
+        <v>7.677078247070312e-05</v>
       </c>
     </row>
     <row r="10">
@@ -905,13 +905,13 @@
         <v>39</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003041436672210693</v>
+        <v>0.0003338503837585449</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001152515411376953</v>
+        <v>0.001607418060302734</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0001475811004638672</v>
+        <v>0.00014495849609375</v>
       </c>
     </row>
     <row r="11">
@@ -951,13 +951,13 @@
         <v>39</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00011319899559021</v>
+        <v>0.0001149258613586426</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0003876686096191406</v>
+        <v>0.0004529953002929688</v>
       </c>
       <c r="N11" t="n">
-        <v>9.226799011230469e-05</v>
+        <v>8.845329284667969e-05</v>
       </c>
     </row>
     <row r="12">
@@ -997,13 +997,13 @@
         <v>22</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001069717884063721</v>
+        <v>0.001303379774093628</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003213882446289062</v>
+        <v>0.004743576049804688</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0005991458892822266</v>
+        <v>0.0005819797515869141</v>
       </c>
     </row>
     <row r="13">
@@ -1043,13 +1043,13 @@
         <v>29</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004961342811584473</v>
+        <v>0.0005609757900238037</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00171208381652832</v>
+        <v>0.001481294631958008</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0004246234893798828</v>
+        <v>0.0004479885101318359</v>
       </c>
     </row>
     <row r="14">
@@ -1089,13 +1089,13 @@
         <v>29</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002340848445892334</v>
+        <v>0.0002442803382873535</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002069473266601562</v>
+        <v>0.0009565353393554688</v>
       </c>
       <c r="N14" t="n">
-        <v>9.751319885253906e-05</v>
+        <v>0.0001006126403808594</v>
       </c>
     </row>
     <row r="15">
@@ -1135,10 +1135,10 @@
         <v>29</v>
       </c>
       <c r="L15" t="n">
-        <v>8.187532424926758e-05</v>
+        <v>7.474923133850098e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0003213882446289062</v>
+        <v>0.0004110336303710938</v>
       </c>
       <c r="N15" t="n">
         <v>5.793571472167969e-05</v>
@@ -1179,13 +1179,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003228492736816406</v>
+        <v>0.0004940464496612549</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002485036849975586</v>
+        <v>0.004242897033691406</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0001382827758789062</v>
+        <v>0.0001595020294189453</v>
       </c>
     </row>
     <row r="17">
@@ -1225,13 +1225,13 @@
         <v>29</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001554527282714844</v>
+        <v>0.000166006326675415</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0009849071502685547</v>
+        <v>0.007096529006958008</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0001063346862792969</v>
+        <v>0.0001032352447509766</v>
       </c>
     </row>
   </sheetData>
